--- a/DataNE.xlsx
+++ b/DataNE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="23600" yWindow="13100" windowWidth="14560" windowHeight="9460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="8900" yWindow="13000" windowWidth="19960" windowHeight="9580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Login Info" sheetId="1" r:id="rId1"/>
@@ -472,7 +472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -513,7 +513,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -561,7 +561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>

--- a/DataNE.xlsx
+++ b/DataNE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8900" yWindow="13000" windowWidth="19960" windowHeight="9580" tabRatio="500"/>
+    <workbookView xWindow="16500" yWindow="12300" windowWidth="19960" windowHeight="9580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Login Info" sheetId="1" r:id="rId1"/>

--- a/DataNE.xlsx
+++ b/DataNE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16500" yWindow="12300" windowWidth="19960" windowHeight="9580" tabRatio="500"/>
+    <workbookView xWindow="14120" yWindow="11860" windowWidth="18220" windowHeight="8460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Login Info" sheetId="1" r:id="rId1"/>
@@ -473,7 +473,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/DataNE.xlsx
+++ b/DataNE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14120" yWindow="11860" windowWidth="18220" windowHeight="8460" tabRatio="500"/>
+    <workbookView xWindow="360" yWindow="820" windowWidth="29860" windowHeight="12520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Login Info" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>URL:</t>
   </si>
@@ -79,65 +79,99 @@
     <t>Adjustresolution:</t>
   </si>
   <si>
+    <t>Closure</t>
+  </si>
+  <si>
+    <t>Restriction</t>
+  </si>
+  <si>
+    <t>Warning</t>
+  </si>
+  <si>
+    <t>Info</t>
+  </si>
+  <si>
+    <t>Legend Icons:</t>
+  </si>
+  <si>
+    <t>Alts:</t>
+  </si>
+  <si>
+    <t>Img srcs:</t>
+  </si>
+  <si>
+    <t>Traffic Speeds</t>
+  </si>
+  <si>
+    <t>Crash</t>
+  </si>
+  <si>
+    <t>Coming Soon</t>
+  </si>
+  <si>
+    <t>Road Reports</t>
+  </si>
+  <si>
+    <t>Winter Driving</t>
+  </si>
+  <si>
+    <t>http://crc-prod-ne-tg-elb-1066571327.us-west-2.elb.amazonaws.com/#roadReports?timeFrame=TODAY&amp;layers=allReports%2CroadReports%2CwinterDriving%2CotherStates</t>
+  </si>
+  <si>
+    <t>Impassable</t>
+  </si>
+  <si>
+    <t>Completely Covered</t>
+  </si>
+  <si>
+    <t>All Reports</t>
+  </si>
+  <si>
+    <t>Waze Reports</t>
+  </si>
+  <si>
     <t>Jenkins</t>
   </si>
   <si>
-    <t>Closure</t>
-  </si>
-  <si>
-    <t>Restriction</t>
-  </si>
-  <si>
-    <t>Warning</t>
-  </si>
-  <si>
-    <t>Info</t>
-  </si>
-  <si>
-    <t>Legend Icons:</t>
-  </si>
-  <si>
-    <t>Alts:</t>
-  </si>
-  <si>
-    <t>Img srcs:</t>
-  </si>
-  <si>
-    <t>Traffic Speeds</t>
-  </si>
-  <si>
-    <t>Crash</t>
-  </si>
-  <si>
-    <t>Coming Soon</t>
-  </si>
-  <si>
-    <t>Road Reports</t>
-  </si>
-  <si>
-    <t>Winter Driving</t>
-  </si>
-  <si>
-    <t>http://crc-prod-ne-tg-elb-1066571327.us-west-2.elb.amazonaws.com/#roadReports?timeFrame=TODAY&amp;layers=allReports%2CroadReports%2CwinterDriving%2CotherStates</t>
-  </si>
-  <si>
-    <t>Impassable</t>
-  </si>
-  <si>
-    <t>Completely Covered</t>
-  </si>
-  <si>
-    <t>All Reports</t>
-  </si>
-  <si>
-    <t>Waze Reports</t>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>host'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'hb.511.nebraska.gov'</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -152,6 +186,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF008000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -175,7 +222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -192,6 +239,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -470,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -482,10 +530,10 @@
     <col min="2" max="2" width="30.33203125" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
     <col min="4" max="4" width="20.83203125" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -499,12 +547,12 @@
         <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -515,35 +563,38 @@
       <c r="D2" s="3">
         <v>1</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -588,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -599,7 +650,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -610,7 +661,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>10</v>
@@ -621,7 +672,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>11</v>
@@ -643,7 +694,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>13</v>
@@ -705,77 +756,77 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/DataNE.xlsx
+++ b/DataNE.xlsx
@@ -561,7 +561,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>

--- a/DataNE.xlsx
+++ b/DataNE.xlsx
@@ -561,7 +561,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>

--- a/DataNE.xlsx
+++ b/DataNE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="820" windowWidth="29860" windowHeight="12520" tabRatio="500"/>
+    <workbookView xWindow="160" yWindow="620" windowWidth="29860" windowHeight="12520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Login Info" sheetId="1" r:id="rId1"/>
@@ -561,7 +561,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>

--- a/DataNE.xlsx
+++ b/DataNE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="160" yWindow="620" windowWidth="29860" windowHeight="12520" tabRatio="500"/>
+    <workbookView xWindow="160" yWindow="600" windowWidth="29860" windowHeight="12520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Login Info" sheetId="1" r:id="rId1"/>
@@ -521,7 +521,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/DataNE.xlsx
+++ b/DataNE.xlsx
@@ -521,7 +521,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -561,7 +561,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
